--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业利润.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业利润.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,36 @@
           <t>国有及国有控股建筑业企业营业利润_累计值</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业产值利润率</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业其他业务利润</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业利润总额</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业工程结算利润</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业营业利润</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,11 +506,26 @@
       <c r="F2" t="n">
         <v>-6.1</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-10.08</v>
+      </c>
+      <c r="J2" t="n">
+        <v>226.41</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-6.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -503,55 +543,100 @@
       <c r="F3" t="n">
         <v>-5.05</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J3" t="n">
+        <v>95.29000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>26.66</v>
+        <v>15.07</v>
       </c>
       <c r="D4" t="n">
-        <v>32.22</v>
+        <v>10.29</v>
       </c>
       <c r="E4" t="n">
-        <v>418.87</v>
+        <v>248.54</v>
       </c>
       <c r="F4" t="n">
-        <v>37.18</v>
+        <v>13.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>15.07</v>
+        <v>26.66</v>
       </c>
       <c r="D5" t="n">
-        <v>10.29</v>
+        <v>32.22</v>
       </c>
       <c r="E5" t="n">
-        <v>248.54</v>
+        <v>418.87</v>
       </c>
       <c r="F5" t="n">
-        <v>13.04</v>
+        <v>37.18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="J5" t="n">
+        <v>170.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -569,55 +654,100 @@
       <c r="F6" t="n">
         <v>-2.59</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>107.36</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-2.59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="C7" t="n">
-        <v>28.92</v>
+        <v>17.01</v>
       </c>
       <c r="D7" t="n">
-        <v>60.57</v>
+        <v>22.48</v>
       </c>
       <c r="E7" t="n">
-        <v>468.56</v>
+        <v>288.18</v>
       </c>
       <c r="F7" t="n">
-        <v>53.87</v>
+        <v>22.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="J7" t="n">
+        <v>180.82</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
       <c r="C8" t="n">
-        <v>17.01</v>
+        <v>28.92</v>
       </c>
       <c r="D8" t="n">
-        <v>22.48</v>
+        <v>60.57</v>
       </c>
       <c r="E8" t="n">
-        <v>288.18</v>
+        <v>468.56</v>
       </c>
       <c r="F8" t="n">
-        <v>22.25</v>
+        <v>53.87</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="I8" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="J8" t="n">
+        <v>180.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -635,55 +765,100 @@
       <c r="F9" t="n">
         <v>1.03</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J9" t="n">
+        <v>128.58</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.96</v>
+        <v>0.29</v>
       </c>
       <c r="C10" t="n">
-        <v>31.37</v>
+        <v>19.02</v>
       </c>
       <c r="D10" t="n">
-        <v>95.54000000000001</v>
+        <v>43.5</v>
       </c>
       <c r="E10" t="n">
-        <v>556.64</v>
+        <v>336.79</v>
       </c>
       <c r="F10" t="n">
-        <v>85.04000000000001</v>
+        <v>40.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40.89</v>
+      </c>
+      <c r="J10" t="n">
+        <v>208.21</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.29</v>
+        <v>0.96</v>
       </c>
       <c r="C11" t="n">
-        <v>19.02</v>
+        <v>31.37</v>
       </c>
       <c r="D11" t="n">
-        <v>43.5</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>336.79</v>
+        <v>556.64</v>
       </c>
       <c r="F11" t="n">
-        <v>40.19</v>
+        <v>85.04000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="I11" t="n">
+        <v>52.04000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>219.85</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44.85000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -701,99 +876,174 @@
       <c r="F12" t="n">
         <v>15.57</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="I12" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="J12" t="n">
+        <v>152.94</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="C13" t="n">
-        <v>39.62</v>
+        <v>21.56</v>
       </c>
       <c r="D13" t="n">
-        <v>162.17</v>
+        <v>78.28</v>
       </c>
       <c r="E13" t="n">
-        <v>657.28</v>
+        <v>391.37</v>
       </c>
       <c r="F13" t="n">
-        <v>144.27</v>
+        <v>67.72</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>60.97</v>
+      </c>
+      <c r="J13" t="n">
+        <v>238.43</v>
+      </c>
+      <c r="K13" t="n">
+        <v>52.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="C14" t="n">
-        <v>21.56</v>
+        <v>39.62</v>
       </c>
       <c r="D14" t="n">
-        <v>78.28</v>
+        <v>162.17</v>
       </c>
       <c r="E14" t="n">
-        <v>391.37</v>
+        <v>657.28</v>
       </c>
       <c r="F14" t="n">
-        <v>67.72</v>
+        <v>144.27</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>83.88999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>265.91</v>
+      </c>
+      <c r="K14" t="n">
+        <v>76.55000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="C15" t="n">
-        <v>50.1</v>
+        <v>29.29</v>
       </c>
       <c r="D15" t="n">
-        <v>196.47</v>
+        <v>120.99</v>
       </c>
       <c r="E15" t="n">
-        <v>755.22</v>
+        <v>483.03</v>
       </c>
       <c r="F15" t="n">
-        <v>189.06</v>
+        <v>112.67</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>120.99</v>
+      </c>
+      <c r="J15" t="n">
+        <v>483.03</v>
+      </c>
+      <c r="K15" t="n">
+        <v>112.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="C16" t="n">
-        <v>29.29</v>
+        <v>50.1</v>
       </c>
       <c r="D16" t="n">
-        <v>120.99</v>
+        <v>196.47</v>
       </c>
       <c r="E16" t="n">
-        <v>483.03</v>
+        <v>755.22</v>
       </c>
       <c r="F16" t="n">
-        <v>112.67</v>
+        <v>189.06</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="I16" t="n">
+        <v>75.48</v>
+      </c>
+      <c r="J16" t="n">
+        <v>272.1900000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>76.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -811,55 +1061,100 @@
       <c r="F17" t="n">
         <v>58.71</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="I17" t="n">
+        <v>58.01</v>
+      </c>
+      <c r="J17" t="n">
+        <v>234.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>58.71</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1.8</v>
       </c>
       <c r="C18" t="n">
-        <v>44.64</v>
+        <v>31.33</v>
       </c>
       <c r="D18" t="n">
-        <v>314.26</v>
+        <v>193.8</v>
       </c>
       <c r="E18" t="n">
-        <v>911.54</v>
+        <v>576.1</v>
       </c>
       <c r="F18" t="n">
-        <v>309.44</v>
+        <v>194.68</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="I18" t="n">
+        <v>135.79</v>
+      </c>
+      <c r="J18" t="n">
+        <v>341.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>135.97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1.8</v>
       </c>
       <c r="C19" t="n">
-        <v>31.33</v>
+        <v>44.64</v>
       </c>
       <c r="D19" t="n">
-        <v>193.8</v>
+        <v>314.26</v>
       </c>
       <c r="E19" t="n">
-        <v>576.1</v>
+        <v>911.54</v>
       </c>
       <c r="F19" t="n">
-        <v>194.68</v>
+        <v>309.44</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="I19" t="n">
+        <v>120.46</v>
+      </c>
+      <c r="J19" t="n">
+        <v>335.4399999999999</v>
+      </c>
+      <c r="K19" t="n">
+        <v>114.76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -877,55 +1172,100 @@
       <c r="F20" t="n">
         <v>75.23999999999999</v>
       </c>
+      <c r="G20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="I20" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="J20" t="n">
+        <v>270.36</v>
+      </c>
+      <c r="K20" t="n">
+        <v>75.23999999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C21" t="n">
-        <v>58.3</v>
+        <v>37.9</v>
       </c>
       <c r="D21" t="n">
-        <v>412.08</v>
+        <v>258.3</v>
       </c>
       <c r="E21" t="n">
-        <v>1099.33</v>
+        <v>682.5</v>
       </c>
       <c r="F21" t="n">
-        <v>434.39</v>
+        <v>263.46</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="I21" t="n">
+        <v>186.16</v>
+      </c>
+      <c r="J21" t="n">
+        <v>412.14</v>
+      </c>
+      <c r="K21" t="n">
+        <v>188.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>37.9</v>
+        <v>58.3</v>
       </c>
       <c r="D22" t="n">
-        <v>258.3</v>
+        <v>412.08</v>
       </c>
       <c r="E22" t="n">
-        <v>682.5</v>
+        <v>1099.33</v>
       </c>
       <c r="F22" t="n">
-        <v>263.46</v>
+        <v>434.39</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>153.78</v>
+      </c>
+      <c r="J22" t="n">
+        <v>416.8299999999999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>170.93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -943,55 +1283,100 @@
       <c r="F23" t="n">
         <v>92.47</v>
       </c>
+      <c r="G23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="I23" t="n">
+        <v>96.59</v>
+      </c>
+      <c r="J23" t="n">
+        <v>314.57</v>
+      </c>
+      <c r="K23" t="n">
+        <v>92.47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>63.09</v>
+        <v>48.01</v>
       </c>
       <c r="D24" t="n">
-        <v>475.54</v>
+        <v>295.43</v>
       </c>
       <c r="E24" t="n">
-        <v>1289.32</v>
+        <v>803.8200000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>486.5</v>
+        <v>299.38</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>198.84</v>
+      </c>
+      <c r="J24" t="n">
+        <v>489.2500000000001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>206.91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C25" t="n">
-        <v>48.01</v>
+        <v>63.09</v>
       </c>
       <c r="D25" t="n">
-        <v>295.43</v>
+        <v>475.54</v>
       </c>
       <c r="E25" t="n">
-        <v>803.8200000000001</v>
+        <v>1289.32</v>
       </c>
       <c r="F25" t="n">
-        <v>299.38</v>
+        <v>486.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>15.08000000000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>180.11</v>
+      </c>
+      <c r="J25" t="n">
+        <v>485.4999999999999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>187.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1005,47 +1390,80 @@
       <c r="F26" t="n">
         <v>126.58</v>
       </c>
+      <c r="G26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>116.83</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>126.58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>598.8</v>
+        <v>366.87</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>641.88</v>
+        <v>384.13</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>250.04</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>257.55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>366.87</v>
+        <v>598.8</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>384.13</v>
+        <v>641.88</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>231.9299999999999</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>257.75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1059,47 +1477,80 @@
       <c r="F29" t="n">
         <v>153.54</v>
       </c>
+      <c r="G29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>148.68</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>153.54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>753.0599999999999</v>
+        <v>437.42</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>767.9299999999999</v>
+        <v>441.3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>288.74</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>287.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>437.42</v>
+        <v>753.0599999999999</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>441.3</v>
+        <v>767.9299999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>315.6399999999999</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>326.6299999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1113,11 +1564,22 @@
       <c r="F32" t="n">
         <v>171.43</v>
       </c>
+      <c r="G32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>170.47</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>171.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1125,17 +1587,28 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>824.63</v>
+        <v>516.4</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>825.05</v>
+        <v>527.61</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>345.9299999999999</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>356.18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1143,17 +1616,28 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>516.4</v>
+        <v>824.63</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>527.61</v>
+        <v>825.05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>308.23</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>297.4399999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1167,11 +1651,22 @@
       <c r="F35" t="n">
         <v>200.03</v>
       </c>
+      <c r="G35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>201.53</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>200.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1179,17 +1674,28 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>871.83</v>
+        <v>547.9</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>871.9400000000001</v>
+        <v>540.83</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>346.37</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>340.8000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1197,17 +1703,28 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>547.9</v>
+        <v>871.83</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>540.83</v>
+        <v>871.9400000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>323.9300000000001</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>331.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1221,11 +1738,22 @@
       <c r="F38" t="n">
         <v>228.13</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>226.8</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>228.13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1239,11 +1767,22 @@
       <c r="F39" t="n">
         <v>997.9099999999989</v>
       </c>
+      <c r="G39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>770.55</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>769.7799999999989</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1255,6 +1794,17 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
+        <v>272.41</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>273.84</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
         <v>272.41</v>
       </c>
     </row>

--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业利润.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业利润.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,6 @@
           <t>国有及国有控股建筑业企业营业利润_累计值</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业产值利润率</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业其他业务利润</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业利润总额</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业工程结算利润</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业营业利润</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -506,21 +481,6 @@
       <c r="F2" t="n">
         <v>-6.1</v>
       </c>
-      <c r="G2" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-10.08</v>
-      </c>
-      <c r="J2" t="n">
-        <v>226.41</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-6.1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,94 +503,49 @@
       <c r="F3" t="n">
         <v>-5.05</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.04999999999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J3" t="n">
-        <v>95.29000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.05</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>15.07</v>
+        <v>26.66</v>
       </c>
       <c r="D4" t="n">
-        <v>10.29</v>
+        <v>32.22</v>
       </c>
       <c r="E4" t="n">
-        <v>248.54</v>
+        <v>418.87</v>
       </c>
       <c r="F4" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="J4" t="n">
-        <v>153.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.09</v>
+        <v>37.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C5" t="n">
-        <v>26.66</v>
+        <v>15.07</v>
       </c>
       <c r="D5" t="n">
-        <v>32.22</v>
+        <v>10.29</v>
       </c>
       <c r="E5" t="n">
-        <v>418.87</v>
+        <v>248.54</v>
       </c>
       <c r="F5" t="n">
-        <v>37.18</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="I5" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="J5" t="n">
-        <v>170.33</v>
-      </c>
-      <c r="K5" t="n">
-        <v>24.14</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="6">
@@ -654,94 +569,49 @@
       <c r="F6" t="n">
         <v>-2.59</v>
       </c>
-      <c r="G6" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-3.21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>107.36</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-2.59</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
       <c r="C7" t="n">
-        <v>17.01</v>
+        <v>28.92</v>
       </c>
       <c r="D7" t="n">
-        <v>22.48</v>
+        <v>60.57</v>
       </c>
       <c r="E7" t="n">
-        <v>288.18</v>
+        <v>468.56</v>
       </c>
       <c r="F7" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25.69</v>
-      </c>
-      <c r="J7" t="n">
-        <v>180.82</v>
-      </c>
-      <c r="K7" t="n">
-        <v>24.84</v>
+        <v>53.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="C8" t="n">
-        <v>28.92</v>
+        <v>17.01</v>
       </c>
       <c r="D8" t="n">
-        <v>60.57</v>
+        <v>22.48</v>
       </c>
       <c r="E8" t="n">
-        <v>468.56</v>
+        <v>288.18</v>
       </c>
       <c r="F8" t="n">
-        <v>53.87</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="I8" t="n">
-        <v>38.09</v>
-      </c>
-      <c r="J8" t="n">
-        <v>180.38</v>
-      </c>
-      <c r="K8" t="n">
-        <v>31.62</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="9">
@@ -765,94 +635,49 @@
       <c r="F9" t="n">
         <v>1.03</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J9" t="n">
-        <v>128.58</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.03</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.29</v>
+        <v>0.96</v>
       </c>
       <c r="C10" t="n">
-        <v>19.02</v>
+        <v>31.37</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>336.79</v>
+        <v>556.64</v>
       </c>
       <c r="F10" t="n">
-        <v>40.19</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40.89</v>
-      </c>
-      <c r="J10" t="n">
-        <v>208.21</v>
-      </c>
-      <c r="K10" t="n">
-        <v>39.16</v>
+        <v>85.04000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.96</v>
+        <v>0.29</v>
       </c>
       <c r="C11" t="n">
-        <v>31.37</v>
+        <v>19.02</v>
       </c>
       <c r="D11" t="n">
-        <v>95.54000000000001</v>
+        <v>43.5</v>
       </c>
       <c r="E11" t="n">
-        <v>556.64</v>
+        <v>336.79</v>
       </c>
       <c r="F11" t="n">
-        <v>85.04000000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="I11" t="n">
-        <v>52.04000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>219.85</v>
-      </c>
-      <c r="K11" t="n">
-        <v>44.85000000000001</v>
+        <v>40.19</v>
       </c>
     </row>
     <row r="12">
@@ -876,168 +701,93 @@
       <c r="F12" t="n">
         <v>15.57</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="J12" t="n">
-        <v>152.94</v>
-      </c>
-      <c r="K12" t="n">
-        <v>15.57</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="C13" t="n">
-        <v>21.56</v>
+        <v>39.62</v>
       </c>
       <c r="D13" t="n">
-        <v>78.28</v>
+        <v>162.17</v>
       </c>
       <c r="E13" t="n">
-        <v>391.37</v>
+        <v>657.28</v>
       </c>
       <c r="F13" t="n">
-        <v>67.72</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.4299999999999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>60.97</v>
-      </c>
-      <c r="J13" t="n">
-        <v>238.43</v>
-      </c>
-      <c r="K13" t="n">
-        <v>52.15</v>
+        <v>144.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="C14" t="n">
-        <v>39.62</v>
+        <v>21.56</v>
       </c>
       <c r="D14" t="n">
-        <v>162.17</v>
+        <v>78.28</v>
       </c>
       <c r="E14" t="n">
-        <v>657.28</v>
+        <v>391.37</v>
       </c>
       <c r="F14" t="n">
-        <v>144.27</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="I14" t="n">
-        <v>83.88999999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>265.91</v>
-      </c>
-      <c r="K14" t="n">
-        <v>76.55000000000001</v>
+        <v>67.72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="C15" t="n">
-        <v>29.29</v>
+        <v>50.1</v>
       </c>
       <c r="D15" t="n">
-        <v>120.99</v>
+        <v>196.47</v>
       </c>
       <c r="E15" t="n">
-        <v>483.03</v>
+        <v>755.22</v>
       </c>
       <c r="F15" t="n">
-        <v>112.67</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H15" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="I15" t="n">
-        <v>120.99</v>
-      </c>
-      <c r="J15" t="n">
-        <v>483.03</v>
-      </c>
-      <c r="K15" t="n">
-        <v>112.67</v>
+        <v>189.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="C16" t="n">
-        <v>50.1</v>
+        <v>29.29</v>
       </c>
       <c r="D16" t="n">
-        <v>196.47</v>
+        <v>120.99</v>
       </c>
       <c r="E16" t="n">
-        <v>755.22</v>
+        <v>483.03</v>
       </c>
       <c r="F16" t="n">
-        <v>189.06</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="I16" t="n">
-        <v>75.48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>272.1900000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>76.39</v>
+        <v>112.67</v>
       </c>
     </row>
     <row r="17">
@@ -1061,94 +811,49 @@
       <c r="F17" t="n">
         <v>58.71</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="I17" t="n">
-        <v>58.01</v>
-      </c>
-      <c r="J17" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>58.71</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1.8</v>
       </c>
       <c r="C18" t="n">
-        <v>31.33</v>
+        <v>44.64</v>
       </c>
       <c r="D18" t="n">
-        <v>193.8</v>
+        <v>314.26</v>
       </c>
       <c r="E18" t="n">
-        <v>576.1</v>
+        <v>911.54</v>
       </c>
       <c r="F18" t="n">
-        <v>194.68</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>19.06</v>
-      </c>
-      <c r="I18" t="n">
-        <v>135.79</v>
-      </c>
-      <c r="J18" t="n">
-        <v>341.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>135.97</v>
+        <v>309.44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1.8</v>
       </c>
       <c r="C19" t="n">
-        <v>44.64</v>
+        <v>31.33</v>
       </c>
       <c r="D19" t="n">
-        <v>314.26</v>
+        <v>193.8</v>
       </c>
       <c r="E19" t="n">
-        <v>911.54</v>
+        <v>576.1</v>
       </c>
       <c r="F19" t="n">
-        <v>309.44</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="I19" t="n">
-        <v>120.46</v>
-      </c>
-      <c r="J19" t="n">
-        <v>335.4399999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>114.76</v>
+        <v>194.68</v>
       </c>
     </row>
     <row r="20">
@@ -1172,94 +877,49 @@
       <c r="F20" t="n">
         <v>75.23999999999999</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="I20" t="n">
-        <v>72.14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>270.36</v>
-      </c>
-      <c r="K20" t="n">
-        <v>75.23999999999999</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>37.9</v>
+        <v>58.3</v>
       </c>
       <c r="D21" t="n">
-        <v>258.3</v>
+        <v>412.08</v>
       </c>
       <c r="E21" t="n">
-        <v>682.5</v>
+        <v>1099.33</v>
       </c>
       <c r="F21" t="n">
-        <v>263.46</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>24.03</v>
-      </c>
-      <c r="I21" t="n">
-        <v>186.16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>412.14</v>
-      </c>
-      <c r="K21" t="n">
-        <v>188.22</v>
+        <v>434.39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C22" t="n">
-        <v>58.3</v>
+        <v>37.9</v>
       </c>
       <c r="D22" t="n">
-        <v>412.08</v>
+        <v>258.3</v>
       </c>
       <c r="E22" t="n">
-        <v>1099.33</v>
+        <v>682.5</v>
       </c>
       <c r="F22" t="n">
-        <v>434.39</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>153.78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>416.8299999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>170.93</v>
+        <v>263.46</v>
       </c>
     </row>
     <row r="23">
@@ -1283,94 +943,49 @@
       <c r="F23" t="n">
         <v>92.47</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="I23" t="n">
-        <v>96.59</v>
-      </c>
-      <c r="J23" t="n">
-        <v>314.57</v>
-      </c>
-      <c r="K23" t="n">
-        <v>92.47</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C24" t="n">
-        <v>48.01</v>
+        <v>63.09</v>
       </c>
       <c r="D24" t="n">
-        <v>295.43</v>
+        <v>475.54</v>
       </c>
       <c r="E24" t="n">
-        <v>803.8200000000001</v>
+        <v>1289.32</v>
       </c>
       <c r="F24" t="n">
-        <v>299.38</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>198.84</v>
-      </c>
-      <c r="J24" t="n">
-        <v>489.2500000000001</v>
-      </c>
-      <c r="K24" t="n">
-        <v>206.91</v>
+        <v>486.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>63.09</v>
+        <v>48.01</v>
       </c>
       <c r="D25" t="n">
-        <v>475.54</v>
+        <v>295.43</v>
       </c>
       <c r="E25" t="n">
-        <v>1289.32</v>
+        <v>803.8200000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>486.5</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H25" t="n">
-        <v>15.08000000000001</v>
-      </c>
-      <c r="I25" t="n">
-        <v>180.11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>485.4999999999999</v>
-      </c>
-      <c r="K25" t="n">
-        <v>187.12</v>
+        <v>299.38</v>
       </c>
     </row>
     <row r="26">
@@ -1390,74 +1005,41 @@
       <c r="F26" t="n">
         <v>126.58</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
-        <v>116.83</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>126.58</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>366.87</v>
+        <v>598.8</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>384.13</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>250.04</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>257.55</v>
+        <v>641.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>598.8</v>
+        <v>366.87</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>641.88</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>231.9299999999999</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>257.75</v>
+        <v>384.13</v>
       </c>
     </row>
     <row r="29">
@@ -1477,74 +1059,41 @@
       <c r="F29" t="n">
         <v>153.54</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>148.68</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>153.54</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>437.42</v>
+        <v>753.0599999999999</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>441.3</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>288.74</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>287.76</v>
+        <v>767.9299999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>753.0599999999999</v>
+        <v>437.42</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>767.9299999999999</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
-        <v>315.6399999999999</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>326.6299999999999</v>
+        <v>441.3</v>
       </c>
     </row>
     <row r="32">
@@ -1564,22 +1113,11 @@
       <c r="F32" t="n">
         <v>171.43</v>
       </c>
-      <c r="G32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>170.47</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>171.43</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1587,28 +1125,17 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>516.4</v>
+        <v>824.63</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>527.61</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
-        <v>345.9299999999999</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>356.18</v>
+        <v>825.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1616,22 +1143,11 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>824.63</v>
+        <v>516.4</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>825.05</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="n">
-        <v>308.23</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>297.4399999999999</v>
+        <v>527.61</v>
       </c>
     </row>
     <row r="35">
@@ -1651,22 +1167,11 @@
       <c r="F35" t="n">
         <v>200.03</v>
       </c>
-      <c r="G35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
-        <v>201.53</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>200.03</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1674,28 +1179,17 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>547.9</v>
+        <v>871.83</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>540.83</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
-        <v>346.37</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>340.8000000000001</v>
+        <v>871.9400000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1703,22 +1197,11 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>871.83</v>
+        <v>547.9</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>871.9400000000001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
-        <v>323.9300000000001</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>331.11</v>
+        <v>540.83</v>
       </c>
     </row>
     <row r="38">
@@ -1738,17 +1221,6 @@
       <c r="F38" t="n">
         <v>228.13</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
-        <v>226.8</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>228.13</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1767,17 +1239,6 @@
       <c r="F39" t="n">
         <v>997.9099999999989</v>
       </c>
-      <c r="G39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
-        <v>770.55</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>769.7799999999989</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1794,17 +1255,6 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>272.41</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
-        <v>273.84</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
         <v>272.41</v>
       </c>
     </row>
